--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC2533E-9BC6-B542-9645-83E7B55B2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE9950-B37B-8747-A8FE-2A512FAB0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -180,13 +180,109 @@
   </si>
   <si>
     <t>dayplan Monday</t>
+  </si>
+  <si>
+    <t>Primary Service Areas</t>
+  </si>
+  <si>
+    <t>Lead Train Signup Form</t>
+  </si>
+  <si>
+    <t>Name Of Business</t>
+  </si>
+  <si>
+    <t>Are you willing to grow?</t>
+  </si>
+  <si>
+    <t>Schedule A Call (If We Approve Your Application)</t>
+  </si>
+  <si>
+    <t>augusta georgia</t>
+  </si>
+  <si>
+    <t>Main Location (city + state)</t>
+  </si>
+  <si>
+    <t>Websites:</t>
+  </si>
+  <si>
+    <t>pestcontrolwizards.com</t>
+  </si>
+  <si>
+    <t>httsp://facebook.com/p/PestControlWizards</t>
+  </si>
+  <si>
+    <t>https://instagram.com/user/PestControlWizards</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Pest Control Wizards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please list exact suburbs </t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>If serving a larger area, please list the places</t>
+  </si>
+  <si>
+    <t>that represent the extent of your range</t>
+  </si>
+  <si>
+    <t>If based in 1 city</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Top 1-3 Most Profitable Services</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Lead Train Prospect Intake Form</t>
+  </si>
+  <si>
+    <t>Increase your revenue and profits (if you qualify).</t>
+  </si>
+  <si>
+    <t>This is for local home service based businesses as well as service-based businesses that serve a wider area.</t>
+  </si>
+  <si>
+    <t>This is for both:</t>
+  </si>
+  <si>
+    <t>• Local Service Businesses</t>
+  </si>
+  <si>
+    <t>• Service Businesses That Serve A Wider Area</t>
+  </si>
+  <si>
+    <t>https://leadtrain.net/intake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,8 +312,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +339,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -249,11 +370,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="E1:E121"/>
+  <dimension ref="D1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,6 +1003,223 @@
     </row>
     <row r="120" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="121" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E132" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E145" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D146" s="6"/>
+      <c r="E146" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E151" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D157" s="6"/>
+      <c r="E157" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D158" s="6"/>
+      <c r="E158" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D159" s="6"/>
+      <c r="E159" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D160" s="6"/>
+      <c r="E160" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D164" s="6"/>
+      <c r="E164" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D170" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E171" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E172" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D173" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E174" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D182" s="6"/>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E188" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D189" s="6"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D190" s="6"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D191" s="6"/>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E194" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D195" s="6"/>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E197" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D198" s="6"/>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E200" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D201" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E206" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE9950-B37B-8747-A8FE-2A512FAB0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD73675-D877-4849-BCDD-27556AA535CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Need word like</t>
   </si>
   <si>
-    <t>Monsoon Table (UTG - UI Table Grid)</t>
-  </si>
-  <si>
     <t>Make simple tebnar integration</t>
   </si>
   <si>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>https://leadtrain.net/intake</t>
+  </si>
+  <si>
+    <t>BeamRay</t>
+  </si>
+  <si>
+    <t>beamRay Table (UTG - UI Table Grid)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -370,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,6 +392,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="D1:E206"/>
+  <dimension ref="D1:E214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +918,7 @@
     </row>
     <row r="75" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.2">
@@ -967,257 +977,262 @@
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
-        <v>44</v>
+      <c r="E101" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E127" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="E132" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E135" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E139" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E140" t="s">
-        <v>77</v>
+    <row r="126" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E138" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="4" t="s">
-        <v>50</v>
+      <c r="E145" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D146" s="6"/>
-      <c r="E146" s="6" t="s">
-        <v>60</v>
+      <c r="E146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E151" s="4" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E156" s="4" t="s">
-        <v>55</v>
+      <c r="E152" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D157" s="6"/>
-      <c r="E157" s="6" t="s">
-        <v>56</v>
+      <c r="E157" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D158" s="6"/>
-      <c r="E158" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D159" s="6"/>
-      <c r="E159" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D160" s="6"/>
-      <c r="E160" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="4" t="s">
-        <v>54</v>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" s="6"/>
       <c r="E164" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E168" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D170" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D165" s="6"/>
+      <c r="E165" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="6"/>
+      <c r="E166" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E171" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D172" s="6"/>
+      <c r="E172" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E176" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D178" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E179" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E180" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E172" s="4" t="s">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D181" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D173" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E173" s="4" t="s">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E182" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E174" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D182" s="6"/>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E188" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D189" s="6"/>
-      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D190" s="6"/>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D191" s="6"/>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E194" s="4" t="s">
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E196" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D195" s="6"/>
-    </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E197" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D198" s="6"/>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E200" s="4" t="s">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D199" s="6"/>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E202" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D203" s="6"/>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E205" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D206" s="6"/>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E208" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D209" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E214" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D201" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E201" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E206" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD73675-D877-4849-BCDD-27556AA535CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3258426-9F01-3045-AAE2-14FEEA95E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -730,8 +730,8 @@
   <dimension ref="D1:E214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3258426-9F01-3045-AAE2-14FEEA95E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD91A6E-5199-B54E-958C-25A60CABEE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -730,8 +730,8 @@
   <dimension ref="D1:E214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD91A6E-5199-B54E-958C-25A60CABEE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A93163-E7B7-1B4D-B4AF-C1AE21306A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>beamRay Table (UTG - UI Table Grid)</t>
+  </si>
+  <si>
+    <t>==========================================================</t>
+  </si>
+  <si>
+    <t>page=rup_beamray_mar</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +399,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="D1:E214"/>
+  <dimension ref="D1:E227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,252 +993,277 @@
         <v>80</v>
       </c>
     </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E109" t="s">
-        <v>21</v>
+      <c r="E109" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" t="s">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" t="s">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" t="s">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" t="s">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" s="5" t="s">
+    <row r="139" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E144" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" t="s">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="E138" s="9" t="s">
+    <row r="151" spans="5:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E151" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E141" t="s">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" t="s">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E145" t="s">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E146" t="s">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E147" t="s">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E151" s="4" t="s">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D152" s="6"/>
-      <c r="E152" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E157" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E162" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D163" s="6"/>
-      <c r="E163" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D164" s="6"/>
-      <c r="E164" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" s="6"/>
       <c r="E165" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E175" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D176" s="6"/>
+      <c r="E176" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D177" s="6"/>
+      <c r="E177" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D178" s="6"/>
+      <c r="E178" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D166" s="6"/>
-      <c r="E166" s="6" t="s">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D179" s="6"/>
+      <c r="E179" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E171" s="4" t="s">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E184" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E176" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D178" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E179" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E180" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D181" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E182" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D188" s="6"/>
+      <c r="E185" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D189" s="6"/>
+      <c r="E189" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D190" s="6"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D191" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E192" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E193" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D194" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E195" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E196" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
-      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D198" s="6"/>
-      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D199" s="6"/>
     </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D201" s="6"/>
+    </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E202" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D203" s="6"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E205" s="4" t="s">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E209" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D210" s="6"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D211" s="6"/>
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212" s="6"/>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E215" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D216" s="6"/>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E218" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D206" s="6"/>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E208" s="4" t="s">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D219" s="6"/>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E221" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D209" s="6" t="s">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D222" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E222" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E214" s="7" t="s">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E227" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A93163-E7B7-1B4D-B4AF-C1AE21306A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EEE00-F5EA-5F4E-A511-6C966F27EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>page=rup_beamray_mar</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bin34/tebnar2?batchid=ce50f11d-aa3d-445a-8e09-d21bf58d9944</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bin34/tebnar2</t>
+  </si>
+  <si>
+    <t>hudson_imgplanbatch_id</t>
+  </si>
+  <si>
+    <t>_zen_orbitposts</t>
+  </si>
+  <si>
+    <t>_zen_orbitposts.hudson_imgplanbatch_id</t>
   </si>
 </sst>
 </file>
@@ -385,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,6 +415,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="D1:E227"/>
+  <dimension ref="D1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,222 +1064,252 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E146" t="s">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="5:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="E151" s="9" t="s">
+    <row r="168" spans="5:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E168" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E154" t="s">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E171" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E156" t="s">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E173" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E158" t="s">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E159" t="s">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E160" t="s">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="4" t="s">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E181" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D165" s="6"/>
-      <c r="E165" s="6" t="s">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D182" s="6"/>
+      <c r="E182" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E170" s="4" t="s">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E187" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E175" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D176" s="6"/>
-      <c r="E176" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D177" s="6"/>
-      <c r="E177" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D178" s="6"/>
-      <c r="E178" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D179" s="6"/>
-      <c r="E179" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E184" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E189" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D191" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>64</v>
-      </c>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E192" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E193" s="4" t="s">
-        <v>61</v>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D194" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>62</v>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E195" s="4" t="s">
-        <v>63</v>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D196" s="6"/>
+      <c r="E196" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D200" s="6"/>
+      <c r="E197" s="6"/>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D201" s="6"/>
+      <c r="E201" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D203" s="6"/>
+      <c r="E202" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E206" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D208" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E209" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D210" s="6"/>
-      <c r="E210" s="4"/>
+      <c r="E210" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D211" s="6"/>
-      <c r="E211" s="4"/>
+      <c r="D211" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D212" s="6"/>
+      <c r="E212" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D214" s="6"/>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E215" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="D215" s="6"/>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D216" s="6"/>
     </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D217" s="6"/>
+    </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E218" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="D218" s="6"/>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D219" s="6"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E221" s="4" t="s">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D220" s="6"/>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E226" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D227" s="6"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D228" s="6"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D229" s="6"/>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E232" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D233" s="6"/>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E235" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D236" s="6"/>
+    </row>
+    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E238" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D222" s="6" t="s">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D239" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E239" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E227" s="7" t="s">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E244" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EEE00-F5EA-5F4E-A511-6C966F27EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD53980-D9DF-734B-B4CC-29E7A7CDE695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>_zen_orbitposts.hudson_imgplanbatch_id</t>
+  </si>
+  <si>
+    <t>79f1a2d4-ec7e-4f3a-a896-d2e4d0e2d3ba</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,6 +1097,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="156" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD53980-D9DF-734B-B4CC-29E7A7CDE695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40995FA2-7FAA-9646-B6AC-9094F8F5A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Elementor elicitor</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>79f1a2d4-ec7e-4f3a-a896-d2e4d0e2d3ba</t>
+  </si>
+  <si>
+    <t>0800ffd1c662e3b864461e63a0d2ceaa83509ad3</t>
+  </si>
+  <si>
+    <t>f3fdfa0063f7b1a912751fd14e30d334f5dd3c47</t>
+  </si>
+  <si>
+    <t>snefuruplin (repo system in vscode that is only for the wp plugin portion)</t>
+  </si>
+  <si>
+    <t>total local rehub</t>
   </si>
 </sst>
 </file>
@@ -753,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="D1:E244"/>
+  <dimension ref="D1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,53 +1069,69 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E133" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E138" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E144" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E148" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E149" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="156" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="5:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E161" s="5" t="s">
         <v>48</v>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40995FA2-7FAA-9646-B6AC-9094F8F5A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62640E-6D21-2F45-BB27-4C8AF0B8F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62640E-6D21-2F45-BB27-4C8AF0B8F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DA162-1FA2-AF48-AC1D-E40DBA755303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -768,8 +768,8 @@
   <dimension ref="D1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DA162-1FA2-AF48-AC1D-E40DBA755303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E4D55-3ED5-1C4F-BBF6-3E2C1ADDB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70C95-EED0-8D44-855C-AAF817F310D3}">
-  <dimension ref="D1:H244"/>
+  <dimension ref="D1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,162 +1130,150 @@
         <v>88</v>
       </c>
     </row>
-    <row r="156" spans="5:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="5" t="s">
+    <row r="160" spans="5:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E163" t="s">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="5:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="E168" s="9" t="s">
+    <row r="172" spans="5:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E172" s="9" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E171" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E173" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E175" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E176" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E177" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E179" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E181" s="4" t="s">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E185" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D182" s="6"/>
-      <c r="E182" s="6" t="s">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D186" s="6"/>
+      <c r="E186" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E187" s="4" t="s">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E191" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-    </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E192" s="4" t="s">
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E196" s="4" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D193" s="6"/>
-      <c r="E193" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D194" s="6"/>
-      <c r="E194" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D195" s="6"/>
-      <c r="E195" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D196" s="6"/>
-      <c r="E196" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="E197" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D198" s="6"/>
+      <c r="E198" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D199" s="6"/>
+      <c r="E199" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D200" s="6"/>
+      <c r="E200" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E201" s="4" t="s">
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E205" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D202" s="6"/>
-      <c r="E202" s="6" t="s">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D206" s="6"/>
+      <c r="E206" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E206" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D208" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E209" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E210" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E213" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E214" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D211" s="8" t="s">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D215" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E212" s="4" t="s">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E216" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D216" s="6"/>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D217" s="6"/>
@@ -1299,53 +1287,65 @@
     <row r="220" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D220" s="6"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E226" s="4" t="s">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D221" s="6"/>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D222" s="6"/>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D223" s="6"/>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D224" s="6"/>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E230" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D227" s="6"/>
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D228" s="6"/>
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D229" s="6"/>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D231" s="6"/>
+      <c r="E231" s="4"/>
     </row>
     <row r="232" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E232" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="4"/>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D233" s="6"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E235" s="4" t="s">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E236" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D237" s="6"/>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E239" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D236" s="6"/>
-    </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E238" s="4" t="s">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D240" s="6"/>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E242" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D239" s="6" t="s">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D243" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E243" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E244" s="7" t="s">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E248" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E4D55-3ED5-1C4F-BBF6-3E2C1ADDB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9049DCF-3170-4A45-82C7-42DAF48ABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9049DCF-3170-4A45-82C7-42DAF48ABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE65B5-4FEF-B349-BF45-7AD7274942E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE65B5-4FEF-B349-BF45-7AD7274942E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D67780-20E8-3649-93BB-A6CDFF47975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -768,8 +768,8 @@
   <dimension ref="D1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D67780-20E8-3649-93BB-A6CDFF47975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE1A8B-BEA7-8548-B321-7A9AAEDEDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE1A8B-BEA7-8548-B321-7A9AAEDEDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99378153-ED08-3D48-AA99-D62EEE938186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>

--- a/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/230 next push hurricane 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/230 next push hurricane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99378153-ED08-3D48-AA99-D62EEE938186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E851F-8FB9-8141-A1E5-A9C1EDCC3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A19E904F-4B03-2145-9BA6-C366915416CF}"/>
   </bookViews>
@@ -768,8 +768,8 @@
   <dimension ref="D1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
